--- a/biology/Médecine/Campus_Saint-Germain-des-Prés/Campus_Saint-Germain-des-Prés.xlsx
+++ b/biology/Médecine/Campus_Saint-Germain-des-Prés/Campus_Saint-Germain-des-Prés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Campus_Saint-Germain-des-Pr%C3%A9s</t>
+          <t>Campus_Saint-Germain-des-Prés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le campus Saint-Germain-des-Prés, anciennement le centre universitaire des Saints-Pères (CUSP) est un campus universitaire situé au no 45 rue des Saints-Pères dans le quartier de Saint-Germain-des-Prés du 6e arrondissement de Paris, composé d'un bâtiment occupé principalement par Université Paris-Cité.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Campus_Saint-Germain-des-Pr%C3%A9s</t>
+          <t>Campus_Saint-Germain-des-Prés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé au 45 rue des Saints-Pères, dans le 6e arrondissement de Paris, ce bâtiment a été conçu pour pallier la saturation de la faculté de médecine.
-Les projets de déménagement voient le jour en 1929[1], mais différents emplacements ont été envisagés avant de retenir, en 1934, celui de l'hôpital de la Charité[2]. La construction est confiée à Jacques Debat-Ponsan, Louis Madeline et Armand Guéritte mais entre-temps une partie du terrain est attribuée à la construction d'une école primaire, ce qui oblige les architectes à envisager un bâtiment plus élevé que prévu initialement. Commencés en 1936, les travaux doivent être interrompus en 1942 sur ordre des autorités allemandes[3].
-À la Libération, de nouveaux débats naissent : il est envisagé d'installer la faculté de médecine ailleurs et d'affecter le bâtiment encore inachevé à d'autres institutions (PTT, École nationale supérieure des beaux-arts et/ou École nationale des ponts et chaussées)[4]. Toutefois, l'affectation initiale finit par être confirmée et les travaux reprennent pour une inauguration en 1953.
+Les projets de déménagement voient le jour en 1929, mais différents emplacements ont été envisagés avant de retenir, en 1934, celui de l'hôpital de la Charité. La construction est confiée à Jacques Debat-Ponsan, Louis Madeline et Armand Guéritte mais entre-temps une partie du terrain est attribuée à la construction d'une école primaire, ce qui oblige les architectes à envisager un bâtiment plus élevé que prévu initialement. Commencés en 1936, les travaux doivent être interrompus en 1942 sur ordre des autorités allemandes.
+À la Libération, de nouveaux débats naissent : il est envisagé d'installer la faculté de médecine ailleurs et d'affecter le bâtiment encore inachevé à d'autres institutions (PTT, École nationale supérieure des beaux-arts et/ou École nationale des ponts et chaussées). Toutefois, l'affectation initiale finit par être confirmée et les travaux reprennent pour une inauguration en 1953.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Campus_Saint-Germain-des-Pr%C3%A9s</t>
+          <t>Campus_Saint-Germain-des-Prés</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cet ensemble regroupe à la fois des équipes, des laboratoires et des instituts de recherche issus des divers milieux scientifiques et des sciences humaines et sociales. Contrairement aux inscriptions sur le bâtiment, le campus n'abrite plus les formations de la faculté de médecine de l'université, répartis sur d'autres sites (Cordeliers, Cochin, Bichat et Necker). Il forme avec le campus des Grands Moulins, l'un des deux principaux campus d'Université Paris-Cité.
 Le campus rassemble, au sein d'Université Paris-Cité, les formations suivantes :
@@ -561,7 +577,7 @@
 Masters des sciences de la vie et de la santé.
 Il regroupe également :
 14 laboratoires CNRS et Inserm ;
-La bibliothèque universitaire[5].</t>
+La bibliothèque universitaire.</t>
         </is>
       </c>
     </row>
